--- a/src/test/resources/data/testdata.xlsx
+++ b/src/test/resources/data/testdata.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="2520" windowWidth="14840" windowHeight="6420"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData" sheetId="3" r:id="rId1"/>
+    <sheet name="TEST_DATA" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
